--- a/hw5.xlsx
+++ b/hw5.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,15 +391,15 @@
         <v>100</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="E3">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D3, $B$5, $B$6)</f>
-        <v>1.9907676429044514</v>
+        <v>0.19920929869063997</v>
       </c>
       <c r="F3">
         <f>_xll.BLACK.VEGA($B$3, D3, $B$5, $B$6)</f>
-        <v>19.891091580374859</v>
+        <v>19.91964333692809</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -408,15 +408,15 @@
       </c>
       <c r="D4" s="1">
         <f>D3-E3/F3</f>
-        <v>0.19991662172685376</v>
+        <v>0.19999935413897019</v>
       </c>
       <c r="E4">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D4, $B$5, $B$6)</f>
-        <v>-1.6610791406321823E-3</v>
+        <v>-1.2866969882452395E-5</v>
       </c>
       <c r="F4">
         <f>_xll.BLACK.VEGA($B$3, D4, $B$5, $B$6)</f>
-        <v>19.922216463899399</v>
+        <v>19.922195865575066</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -425,15 +425,15 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="0">D4-E4/F4</f>
-        <v>0.1999999999565624</v>
+        <v>0.19999999999999721</v>
       </c>
       <c r="E5">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D5, $B$5, $B$6)</f>
-        <v>-8.6536999788222602E-10</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="F5">
         <f>_xll.BLACK.VEGA($B$3, D5, $B$5, $B$6)</f>
-        <v>19.922195704749019</v>
+        <v>19.922195704738204</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E6">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D6, $B$5, $B$6)</f>
@@ -456,7 +456,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E7">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D7, $B$5, $B$6)</f>
@@ -470,7 +470,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E8">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D8, $B$5, $B$6)</f>
@@ -484,7 +484,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E9">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D9, $B$5, $B$6)</f>
@@ -498,7 +498,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E10">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D10, $B$5, $B$6)</f>
@@ -512,7 +512,7 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E11">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D11, $B$5, $B$6)</f>
@@ -526,7 +526,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E12">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D12, $B$5, $B$6)</f>
@@ -540,7 +540,7 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E13">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D13, $B$5, $B$6)</f>
@@ -554,7 +554,7 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E14">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D14, $B$5, $B$6)</f>
@@ -568,7 +568,7 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E15">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D15, $B$5, $B$6)</f>
@@ -582,7 +582,7 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <f t="shared" ref="D16:D23" si="1">D15-E15/F15</f>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E16">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D16, $B$5, $B$6)</f>
@@ -596,7 +596,7 @@
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E17">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D17, $B$5, $B$6)</f>
@@ -610,7 +610,7 @@
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E18">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D18, $B$5, $B$6)</f>
@@ -624,7 +624,7 @@
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E19">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D19, $B$5, $B$6)</f>
@@ -638,7 +638,7 @@
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E20">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D20, $B$5, $B$6)</f>
@@ -652,7 +652,7 @@
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E21">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D21, $B$5, $B$6)</f>
@@ -666,7 +666,7 @@
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E22">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D22, $B$5, $B$6)</f>
@@ -680,7 +680,7 @@
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999987</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="E23">
         <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D23, $B$5, $B$6)</f>

--- a/hw5.xlsx
+++ b/hw5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>F</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -359,336 +374,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <f>_xll.BLACK.PUT.VALUE(B3, B4, B5, B6)</f>
-        <v>3.987761167674492</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>_xll.BLACK.PUT.VALUE(C3, C4, C5, C6)</f>
+        <v>5.9785288105789434</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E3">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D3, $B$5, $B$6)</f>
-        <v>0.19920929869063997</v>
+      <c r="E3" s="2">
+        <v>0.1</v>
       </c>
       <c r="F3">
-        <f>_xll.BLACK.VEGA($B$3, D3, $B$5, $B$6)</f>
-        <v>19.91964333692809</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1">
-        <f>D3-E3/F3</f>
-        <v>0.19999935413897019</v>
-      </c>
-      <c r="E4">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D4, $B$5, $B$6)</f>
-        <v>-1.2866969882452395E-5</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E3, $C$5, $C$6)</f>
+        <v>-3.9840251715313357</v>
+      </c>
+      <c r="G3">
+        <f>_xll.BLACK.VEGA($C$3, E3, $C$5, $C$6)</f>
+        <v>19.94088152081909</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E3-F3/G3</f>
+        <v>0.29979182802785587</v>
       </c>
       <c r="F4">
-        <f>_xll.BLACK.VEGA($B$3, D4, $B$5, $B$6)</f>
-        <v>19.922195865575066</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E4, $C$5, $C$6)</f>
+        <v>-4.1407758416909246E-3</v>
+      </c>
+      <c r="G4">
+        <f>_xll.BLACK.VEGA($C$3, E4, $C$5, $C$6)</f>
+        <v>19.891169192984574</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D15" si="0">D4-E4/F4</f>
-        <v>0.19999999999999721</v>
-      </c>
-      <c r="E5">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D5, $B$5, $B$6)</f>
-        <v>-5.6843418860808015E-14</v>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E15" si="0">E4-F4/G4</f>
+        <v>0.29999999959391704</v>
       </c>
       <c r="F5">
-        <f>_xll.BLACK.VEGA($B$3, D5, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E5, $C$5, $C$6)</f>
+        <v>-8.0774285038387461E-9</v>
+      </c>
+      <c r="G5">
+        <f>_xll.BLACK.VEGA($C$3, E5, $C$5, $C$6)</f>
+        <v>19.891091580526311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>0.25</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E6">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D6, $B$5, $B$6)</f>
-        <v>0</v>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F6">
-        <f>_xll.BLACK.VEGA($B$3, D6, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E7">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D7, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E6, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>_xll.BLACK.VEGA($C$3, E6, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F7">
-        <f>_xll.BLACK.VEGA($B$3, D7, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E8">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D8, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E7, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BLACK.VEGA($C$3, E7, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F8">
-        <f>_xll.BLACK.VEGA($B$3, D8, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E9">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D9, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E8, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>_xll.BLACK.VEGA($C$3, E8, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F9">
-        <f>_xll.BLACK.VEGA($B$3, D9, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E10">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D10, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E9, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>_xll.BLACK.VEGA($C$3, E9, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F10">
-        <f>_xll.BLACK.VEGA($B$3, D10, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E11">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D11, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E10, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>_xll.BLACK.VEGA($C$3, E10, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F11">
-        <f>_xll.BLACK.VEGA($B$3, D11, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E12">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D12, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E11, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>_xll.BLACK.VEGA($C$3, E11, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F12">
-        <f>_xll.BLACK.VEGA($B$3, D12, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E13">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D13, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E12, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>_xll.BLACK.VEGA($C$3, E12, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F13">
-        <f>_xll.BLACK.VEGA($B$3, D13, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E14">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D14, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E13, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>_xll.BLACK.VEGA($C$3, E13, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F14">
-        <f>_xll.BLACK.VEGA($B$3, D14, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E15">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D15, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E14, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>_xll.BLACK.VEGA($C$3, E14, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F15">
-        <f>_xll.BLACK.VEGA($B$3, D15, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <f t="shared" ref="D16:D23" si="1">D15-E15/F15</f>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E16">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D16, $B$5, $B$6)</f>
-        <v>0</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E15, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>_xll.BLACK.VEGA($C$3, E15, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E23" si="1">E15-F15/G15</f>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F16">
-        <f>_xll.BLACK.VEGA($B$3, D16, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E16, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>_xll.BLACK.VEGA($C$3, E16, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E17">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D17, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F17">
-        <f>_xll.BLACK.VEGA($B$3, D17, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E17, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>_xll.BLACK.VEGA($C$3, E17, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E18">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D18, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F18">
-        <f>_xll.BLACK.VEGA($B$3, D18, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E18, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>_xll.BLACK.VEGA($C$3, E18, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E19">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D19, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F19">
-        <f>_xll.BLACK.VEGA($B$3, D19, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E19, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>_xll.BLACK.VEGA($C$3, E19, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E20">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D20, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F20">
-        <f>_xll.BLACK.VEGA($B$3, D20, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E20, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>_xll.BLACK.VEGA($C$3, E20, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E21">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D21, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F21">
-        <f>_xll.BLACK.VEGA($B$3, D21, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E21, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>_xll.BLACK.VEGA($C$3, E21, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E22">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D22, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F22">
-        <f>_xll.BLACK.VEGA($B$3, D22, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E22, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>_xll.BLACK.VEGA($C$3, E22, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="E23">
-        <f>-$B$2+_xll.BLACK.PUT.VALUE($B$3, D23, $B$5, $B$6)</f>
-        <v>0</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="F23">
-        <f>_xll.BLACK.VEGA($B$3, D23, $B$5, $B$6)</f>
-        <v>19.922195704738204</v>
+        <f>-$C$2+_xll.BLACK.PUT.VALUE($C$3, E23, $C$5, $C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>_xll.BLACK.VEGA($C$3, E23, $C$5, $C$6)</f>
+        <v>19.891091580374859</v>
       </c>
     </row>
   </sheetData>
